--- a/Results/kdd_internet_usage_results.xlsx
+++ b/Results/kdd_internet_usage_results.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnico\OneDrive\Documents\Master\TFM\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F643C4-1770-4EB9-BC2A-49415AAFA25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4F505-F53E-49B7-B2BD-26E0BC6DB86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="23">
   <si>
     <t>Dataset</t>
   </si>
@@ -47,6 +34,9 @@
     <t>Encoder</t>
   </si>
   <si>
+    <t>EarlyStopping</t>
+  </si>
+  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -72,6 +62,9 @@
   </si>
   <si>
     <t>OneHotEncoding</t>
+  </si>
+  <si>
+    <t>NoEarlyStopping</t>
   </si>
   <si>
     <t>BalancedAccuracy</t>
@@ -458,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,647 +487,1000 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>0.8642729069086651</v>
+      </c>
+      <c r="H2">
+        <v>42.506818771362298</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>42.506818771362298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>0.87939110070257609</v>
-      </c>
-      <c r="G2">
-        <v>4.3472790718078613</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>4.3472790718078613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0.86410092213114753</v>
+      </c>
+      <c r="H3">
+        <v>0.78930807113647461</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.78930807113647461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0.88227276053864168</v>
+      </c>
+      <c r="H4">
+        <v>20.786066055297852</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>1.039303302764893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0.88302290690866514</v>
-      </c>
-      <c r="G3">
-        <v>232.33854150772089</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>11.61692707538605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>0.88557340456674472</v>
-      </c>
-      <c r="G4">
-        <v>0.9964916706085204</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.9964916706085204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>0.88481045081967213</v>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>1.4434614181518559</v>
+        <v>0.86221091920374704</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>8.365211009979248</v>
       </c>
       <c r="I5">
-        <v>1.4434614181518559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>8.365211009979248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>0.88087309718969553</v>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>25.30613827705384</v>
+        <v>0.86009221311475414</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>12.623028993606569</v>
       </c>
       <c r="I6">
-        <v>1.265306913852692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>12.623028993606569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>0.88603081088992974</v>
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>49.401610851287842</v>
+        <v>0.87175241510538637</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>0.54470062255859375</v>
       </c>
       <c r="I7">
-        <v>2.4700805425643919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.54470062255859375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>0.88428717798594847</v>
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>0.93520474433898915</v>
+        <v>0.87072782494145207</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.5041663646697998</v>
       </c>
       <c r="I8">
-        <v>0.93520474433898915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.5041663646697998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>0.8823166715456674</v>
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>1.3448114395141599</v>
+        <v>0.87445111241217799</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4.9122161865234384</v>
       </c>
       <c r="I9">
-        <v>1.3448114395141599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>0.24561080932617191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>0.88729508196721318</v>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>23.36292839050293</v>
+        <v>0.88256915983606565</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>6.2019836902618408</v>
       </c>
       <c r="I10">
-        <v>1.1681464195251461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>0.31009918451309199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>0.8589194233021078</v>
+      </c>
+      <c r="H11">
+        <v>7.6770961284637451</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>7.6770961284637451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0.86303059133489457</v>
+      </c>
+      <c r="H12">
+        <v>11.926939725875849</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>11.926939725875849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0.8589194233021078</v>
+      </c>
+      <c r="H13">
+        <v>0.39406037330627441</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.39406037330627441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0.87999670667447316</v>
+      </c>
+      <c r="H14">
+        <v>1.3171477317810061</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1.3171477317810061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>0.87579405737704918</v>
-      </c>
-      <c r="G11">
-        <v>47.762805461883538</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>2.388140273094177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>0.87959967798594851</v>
+      </c>
+      <c r="H15">
+        <v>4.4907271862030029</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0.22453635931015009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>0.87783957845433258</v>
-      </c>
-      <c r="G12">
-        <v>1.0696344375610349</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1.0696344375610349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>0.87411629098360655</v>
-      </c>
-      <c r="G13">
-        <v>1.446972608566284</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1.446972608566284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>0.88033701697892275</v>
-      </c>
-      <c r="G14">
-        <v>27.939179658889771</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-      <c r="I14">
-        <v>1.3969589829444891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>0.88148785128805618</v>
-      </c>
-      <c r="G15">
-        <v>55.066073656082153</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-      <c r="I15">
-        <v>2.7533036828041082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>0.88244291569086653</v>
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>0.96120643615722656</v>
+        <v>0.87563670960187356</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>5.3176147937774658</v>
       </c>
       <c r="I16">
-        <v>0.96120643615722656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>0.26588073968887332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>0.85864497950819674</v>
+      </c>
+      <c r="H17">
+        <v>8.8725016117095947</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>8.8725016117095947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0.85921582259953166</v>
+      </c>
+      <c r="H18">
+        <v>12.867705106735229</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>12.867705106735229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>0.86944159836065582</v>
+      </c>
+      <c r="H19">
+        <v>0.3521883487701416</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.3521883487701416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>0.87115046838407495</v>
+      </c>
+      <c r="H20">
+        <v>0.40416669845581049</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.40416669845581049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17">
-        <v>0.88278322599531611</v>
-      </c>
-      <c r="G17">
-        <v>1.3074548244476321</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1.3074548244476321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>0.87577210187353627</v>
+      </c>
+      <c r="H21">
+        <v>3.4645922183990479</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>0.1732296109199524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>0.8822855679156909</v>
+      </c>
+      <c r="H22">
+        <v>5.5337624549865723</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>0.27668812274932858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>0.87990522540983607</v>
-      </c>
-      <c r="G18">
-        <v>24.141162395477291</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="I18">
-        <v>1.207058119773865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0.86416861826697899</v>
+      </c>
+      <c r="H23">
+        <v>7.9551656246185303</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>7.9551656246185303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>0.86143515807962534</v>
+      </c>
+      <c r="H24">
+        <v>12.029200077056879</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>12.029200077056879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>0.8797222628805621</v>
+      </c>
+      <c r="H25">
+        <v>0.62229013442993164</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.62229013442993164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>0.87641247072599526</v>
+      </c>
+      <c r="H26">
+        <v>0.46879935264587402</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.46879935264587402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>0.87769869730679151</v>
+      </c>
+      <c r="H27">
+        <v>3.973605632781982</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>0.19868028163909909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>0.87644723360655741</v>
+      </c>
+      <c r="H28">
+        <v>5.8109278678894043</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>0.29054639339447019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>0.88007538056206092</v>
-      </c>
-      <c r="G19">
-        <v>49.048253774642937</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="I19">
-        <v>2.4524126887321471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20">
-        <v>0.88353703161592501</v>
-      </c>
-      <c r="G20">
-        <v>3.8353679180145201</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f xml:space="preserve"> G20/H20</f>
-        <v>3.8353679180145201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>0.88981081674473073</v>
+      </c>
+      <c r="H29">
+        <v>26.957199573516849</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>26.957199573516849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>0.88981081674473073</v>
+      </c>
+      <c r="H30">
+        <v>26.51869440078735</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>26.51869440078735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21">
-        <v>0.88353703161592501</v>
-      </c>
-      <c r="G21">
-        <v>3.5030059814453098</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I23" si="0" xml:space="preserve"> G21/H21</f>
-        <v>3.5030059814453098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22">
-        <v>0.88828490925058501</v>
-      </c>
-      <c r="G22">
-        <v>104.32765460014301</v>
-      </c>
-      <c r="H22">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>5.2163827300071501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>0.88236973067915692</v>
+      </c>
+      <c r="H31">
+        <v>261.13182520866388</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>13.0565912604332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23">
-        <v>0.88828490925058501</v>
-      </c>
-      <c r="G23">
-        <v>97.958732366561804</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>4.8979366183280906</v>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>0.88236973067915692</v>
+      </c>
+      <c r="H32">
+        <v>257.41064667701721</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>12.870532333850861</v>
       </c>
     </row>
   </sheetData>
